--- a/M May/Practical 3_Example and Exercise_Template.xlsx
+++ b/M May/Practical 3_Example and Exercise_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stellenbosch-my.sharepoint.com/personal/bambesiwem_sun_ac_za/Documents/Downloads(1)/Geomet short course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{C2C8D215-DC3D-4008-B085-02FB43C1C8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2B51955-0DFC-48FB-AAF1-4FB0D0E2002B}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{C2C8D215-DC3D-4008-B085-02FB43C1C8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B3A94B-015E-400A-A7B5-71018C999FC9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pract. 3_Example" sheetId="6" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>b</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>1. Determine the molar masses of minerals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Express element fractions per mineral </t>
   </si>
   <si>
     <t>Mineral</t>
@@ -562,6 +559,9 @@
   </si>
   <si>
     <t>Table 2</t>
+  </si>
+  <si>
+    <t>2. Express element fractions per mineral - A</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1049,9 +1049,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1197,6 +1194,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,12 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1517,12 +1524,12 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-ZA" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-ZA" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:effectLst/>
               <a:uLnTx/>
@@ -1696,9 +1703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1230313</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>170689</xdr:rowOff>
+      <xdr:colOff>1227138</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157305</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -1715,8 +1722,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4111625"/>
-              <a:ext cx="2595563" cy="1083502"/>
+              <a:off x="0" y="4140200"/>
+              <a:ext cx="2592388" cy="1262205"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1836,7 +1843,17 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>2.10 % = 0.6334 x X</a:t>
+                <a:t>      b   =  A  x  X</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2,10 % = 0,6334 x X</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -1898,15 +1915,18 @@
                       </a:solidFill>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=3.32</m:t>
+                    <m:t>=3,32</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="en-ZA" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1925,8 +1945,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="4111625"/>
-              <a:ext cx="2595563" cy="1083502"/>
+              <a:off x="0" y="4140200"/>
+              <a:ext cx="2592388" cy="1262205"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2046,7 +2066,17 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>2.10 % = 0.6334 x X</a:t>
+                <a:t>      b   =  A  x  X</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2,10 % = 0,6334 x X</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2090,13 +2120,16 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>0,6334=3.32</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-ZA" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
+                <a:t>0,6334=3,32</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2250,7 +2283,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>2.75 % = 0.6469 x Y</a:t>
+                <a:t>2,75 % = 0,6469 x X</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2267,7 +2300,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Y = </a:t>
+                <a:t>X = </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -2312,15 +2345,18 @@
                       </a:solidFill>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                     </a:rPr>
-                    <m:t>=4.25</m:t>
+                    <m:t>=4,25</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="en-ZA" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2457,7 +2493,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>2.75 % = 0.6469 x Y</a:t>
+                <a:t>2,75 % = 0,6469 x X</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2474,7 +2510,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Y = </a:t>
+                <a:t>X = </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1200" b="0" i="0">
@@ -2501,13 +2537,16 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>0,6469=4.25</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-ZA" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:endParaRPr>
+                <a:t>0,6469=4,25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>%</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2518,15 +2557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>601663</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1579563</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1158875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -2543,8 +2582,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5389563"/>
-              <a:ext cx="2944813" cy="1881187"/>
+              <a:off x="601663" y="5619750"/>
+              <a:ext cx="3771900" cy="2159000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2648,6 +2687,22 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>     b      =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>      (A x X) + (A x X)</a:t>
+              </a:r>
               <a:endParaRPr lang="en-ZA" sz="1200">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
@@ -2661,7 +2716,31 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 60,30% = (0.1113 x X) + (0,4655 x Z)</a:t>
+                <a:t> 60,30% = (0,111 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + (0,465 x X) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2678,17 +2757,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Substitute X = 3.32%</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
+                <a:t>Substitute X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 60,30% = (0.1113 x 3.32) + (0,4655 x Z)</a:t>
+                <a:t> = 3,32%</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2698,17 +2783,89 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 60,30% = 0,3696 +0.4655Z</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
+                <a:t> 60,30% = (0,111 x 3,32)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>          Z = </a:t>
+                <a:t> + (0,465 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-ZA" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> 60,30% = 0,369 +0,465X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-ZA" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>          X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -2731,7 +2888,7 @@
                           </a:solidFill>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>60,30 −0.3696</m:t>
+                        <m:t>60,30 −0,369</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -2742,7 +2899,7 @@
                           </a:solidFill>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>0,4655</m:t>
+                        <m:t>0,465</m:t>
                       </m:r>
                     </m:den>
                   </m:f>
@@ -2765,7 +2922,7 @@
                     <a:srgbClr val="FFFF00"/>
                   </a:highlight>
                 </a:rPr>
-                <a:t>128.68%</a:t>
+                <a:t>128,68%</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2799,8 +2956,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5389563"/>
-              <a:ext cx="2944813" cy="1881187"/>
+              <a:off x="601663" y="5619750"/>
+              <a:ext cx="3771900" cy="2159000"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2904,6 +3061,22 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>     b      =</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>      (A x X) + (A x X)</a:t>
+              </a:r>
               <a:endParaRPr lang="en-ZA" sz="1200">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
@@ -2917,7 +3090,31 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 60,30% = (0.1113 x X) + (0,4655 x Z)</a:t>
+                <a:t> 60,30% = (0,111 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + (0,465 x X) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2934,17 +3131,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Substitute X = 3.32%</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
+                <a:t>Substitute X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 60,30% = (0.1113 x 3.32) + (0,4655 x Z)</a:t>
+                <a:t> = 3,32%</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -2954,17 +3157,89 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 60,30% = 0,3696 +0.4655Z</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
+                <a:t> 60,30% = (0,111 x 3,32)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>          Z = </a:t>
+                <a:t> + (0,465 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-ZA" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> 60,30% = 0,369 +0,465X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-ZA" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>          X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200" i="0">
@@ -2982,7 +3257,7 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>60,30 −0.3696</a:t>
+                <a:t>60,30 −0,369</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200" b="0" i="0">
@@ -3000,7 +3275,7 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>0,4655</a:t>
+                <a:t>0,465</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1200">
@@ -3019,7 +3294,7 @@
                     <a:srgbClr val="FFFF00"/>
                   </a:highlight>
                 </a:rPr>
-                <a:t>128.68%</a:t>
+                <a:t>128,68%</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3044,16 +3319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>87312</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122237</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -3070,8 +3345,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3214688" y="5572125"/>
-              <a:ext cx="3884612" cy="1706563"/>
+              <a:off x="4643437" y="5583238"/>
+              <a:ext cx="4667251" cy="2119312"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3188,7 +3463,47 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 34.85% = (0.2553 x X) + (0,3531 x Y) +   	   0.5345 x Z)</a:t>
+                <a:t> 34,85% = (0,256 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + (0,353 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Millerite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> +   (0,5345 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3205,7 +3520,39 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Substitute X = 3.32% and Y = 4.25</a:t>
+                <a:t>Substitute X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornaite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = 3,32% and X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Millerite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = 4,25%</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3215,7 +3562,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>34.85% = (0.2553 x </a:t>
+                <a:t>34</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -3223,6 +3570,54 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>85% = (0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> x </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
                 <a:t>3,32</a:t>
               </a:r>
               <a:r>
@@ -3231,7 +3626,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>) + (0,3531 x </a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + (0,353 x </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -3247,7 +3658,15 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>) </a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Millerite</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -3255,7 +3674,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>	 </a:t>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100">
@@ -3263,8 +3682,71 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>+ 0.5345 x Z)</a:t>
-              </a:r>
+                <a:t>+ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>535 x </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="pl-PL" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
@@ -3273,8 +3755,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>34.85% = 2,3483 + 0.5345Z</a:t>
-              </a:r>
+                <a:t>34,85% = 2,350 + 0,535X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-ZA" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
@@ -3283,7 +3780,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>          Z = </a:t>
+                <a:t>          X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -3306,7 +3819,7 @@
                           </a:solidFill>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>34.85 −2,3483</m:t>
+                        <m:t>34,85 −2,350</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -3317,7 +3830,7 @@
                           </a:solidFill>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>0,5345</m:t>
+                        <m:t>0,535</m:t>
                       </m:r>
                     </m:den>
                   </m:f>
@@ -3374,8 +3887,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3214688" y="5572125"/>
-              <a:ext cx="3884612" cy="1706563"/>
+              <a:off x="4643437" y="5583238"/>
+              <a:ext cx="4667251" cy="2119312"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3492,7 +4005,47 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t> 34.85% = (0.2553 x X) + (0,3531 x Y) +   	   0.5345 x Z)</a:t>
+                <a:t> 34,85% = (0,256 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + (0,353 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Millerite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> +   (0,5345 x X)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3509,7 +4062,39 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>Substitute X = 3.32% and Y = 4.25</a:t>
+                <a:t>Substitute X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornaite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = 3,32% and X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Millerite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = 4,25%</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3519,7 +4104,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>34.85% = (0.2553 x </a:t>
+                <a:t>34</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -3527,6 +4112,54 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>85% = (0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>25</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> x </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
                 <a:t>3,32</a:t>
               </a:r>
               <a:r>
@@ -3535,7 +4168,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>) + (0,3531 x </a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Bornite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> + (0,353 x </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -3551,7 +4200,15 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>) </a:t>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Millerite</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100">
@@ -3559,7 +4216,7 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>	 </a:t>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100">
@@ -3567,8 +4224,71 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>+ 0.5345 x Z)</a:t>
-              </a:r>
+                <a:t>+ </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>535 x </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="pl-PL" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
@@ -3577,8 +4297,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>34.85% = 2,3483 + 0.5345Z</a:t>
-              </a:r>
+                <a:t>34,85% = 2,350 + 0,535X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-ZA" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:r>
@@ -3587,7 +4322,23 @@
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                 </a:rPr>
-                <a:t>          Z = </a:t>
+                <a:t>          X</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100" baseline="-25000">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Pyrite</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-ZA" sz="1100">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> = </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1100" i="0">
@@ -3605,7 +4356,7 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>34.85 −2,3483</a:t>
+                <a:t>34,85 −2,350</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1100" b="0" i="0">
@@ -3623,7 +4374,7 @@
                   </a:solidFill>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>0,5345</a:t>
+                <a:t>0,535</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-ZA" sz="1100">
@@ -3667,16 +4418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1096962</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1150803</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>112186</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560387</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>173202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3691,8 +4442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7477125" y="5572125"/>
-          <a:ext cx="2349366" cy="1390124"/>
+          <a:off x="9772650" y="5572125"/>
+          <a:ext cx="3400425" cy="903452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,28 +4566,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Z (pyrite) =</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>100% – 3.32% – 4.25%</a:t>
+            <a:t>Z (pyrite) =100% – 3,32% – 4,25%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3870,7 +4600,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>92.43% </a:t>
+            <a:t>92,43% </a:t>
           </a:r>
           <a:endParaRPr lang="en-ZA" sz="1100">
             <a:solidFill>
@@ -3894,16 +4624,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>153986</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1096961</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3918,8 +4648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10944225" y="2063750"/>
-          <a:ext cx="3544886" cy="1114425"/>
+          <a:off x="7581900" y="2120900"/>
+          <a:ext cx="3544886" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4579,9 +5309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4599,22 +5329,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.5">
-      <c r="A4" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="A4" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="59" t="s">
-        <v>42</v>
+      <c r="A5" s="58" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -4624,41 +5354,41 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D12" s="59" t="s">
-        <v>65</v>
+      <c r="D12" s="58" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="78" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="75" t="s">
+      <c r="E13" s="84"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="25"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
@@ -4667,28 +5397,28 @@
       <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4696,76 +5426,76 @@
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="77">
         <v>2.1</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <v>63.55</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <f>(5*C15)/$D$20</f>
         <v>0.63311947078983022</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="36">
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="35">
         <f>B15/D15</f>
         <v>3.3169095200629428</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="18"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="77">
         <v>2.75</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>58.7</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53">
+      <c r="D16" s="51"/>
+      <c r="E16" s="74">
         <f>C16/E20</f>
         <v>0.64668943483529795</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39">
+      <c r="F16" s="50"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38">
         <f>B16/E16</f>
         <v>4.2524275979557071</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="77">
         <v>60.3</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <v>55.85</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="48">
         <f>C17/$D$20</f>
         <v>0.11128158125448315</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54">
+      <c r="E17" s="52"/>
+      <c r="F17" s="53">
         <f>C17/F20</f>
         <v>0.4654554546212184</v>
       </c>
-      <c r="G17" s="38"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="42">
+      <c r="G17" s="37"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="41">
         <f>(B17-G22-H22)/F17</f>
         <v>128.75751797237035</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <f>G15+H16+I17</f>
         <v>136.32685509038899</v>
       </c>
@@ -4774,99 +5504,99 @@
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="77">
         <v>34.85</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <v>32.07</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="48">
         <f>4*C18/$D$20</f>
         <v>0.25559894795568661</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="74">
         <f>C18/E20</f>
         <v>0.35331056516470194</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="53">
         <f>(2*C18)/F20</f>
         <v>0.53454454537878149</v>
       </c>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="42">
+      <c r="G18" s="37"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="41">
         <f>(B18-G23-H23)/F18</f>
         <v>60.799000007047994</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f>$G$15+$H$16+I18</f>
         <v>68.368337125066645</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="55">
+      <c r="B19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="54">
         <f>SUM(D15:D18)</f>
         <v>1</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="55">
         <f>SUM(E15:E18)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="56">
         <f>SUM(F15:F18)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="43">
+      <c r="G19" s="37"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="42">
         <f>100-G15-H16</f>
         <v>92.430662881981348</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="44">
         <f>$G$15+$H$16+I19</f>
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28" t="s">
+      <c r="A20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <f>(C15*5)+C17+(4*C18)</f>
         <v>501.88</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <f>C16+C18</f>
         <v>90.77000000000001</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <f>C17+(C18*2)</f>
         <v>119.99000000000001</v>
       </c>
-      <c r="G20" s="32"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
-        <v>66</v>
+      <c r="A22" s="58" t="s">
+        <v>65</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="75">
         <f>D17*G15</f>
         <v>0.36911093627065306</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="75">
         <f>E17*H16</f>
         <v>0</v>
       </c>
@@ -4875,21 +5605,24 @@
       <c r="F23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="75">
         <f>D18*G15</f>
         <v>0.84779858379228956</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="75">
         <f>E18*H16</f>
         <v>1.5024275979557069</v>
       </c>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H25" s="76"/>
     </row>
     <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
@@ -4900,9 +5633,9 @@
     <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
     </row>
     <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
@@ -4925,15 +5658,15 @@
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="58"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="70"/>
       <c r="F34" s="1"/>
       <c r="G34" s="10"/>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="72" t="s">
-        <v>67</v>
+      <c r="A35" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="10"/>
@@ -4972,8 +5705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA0B064-B5DF-4911-A1D8-417BFEDA49FD}">
   <dimension ref="B5:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -5000,15 +5733,15 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>47</v>
-      </c>
       <c r="D5"/>
-      <c r="E5" s="59" t="s">
-        <v>55</v>
+      <c r="E5" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -5026,15 +5759,15 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>48</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>49</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -5052,15 +5785,15 @@
       <c r="S6"/>
     </row>
     <row r="7" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="69" t="s">
-        <v>51</v>
-      </c>
       <c r="D7"/>
-      <c r="E7" s="59" t="s">
-        <v>69</v>
+      <c r="E7" s="58" t="s">
+        <v>68</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -5078,10 +5811,10 @@
       <c r="S7"/>
     </row>
     <row r="8" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="70">
+      <c r="B8" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="69">
         <v>45820</v>
       </c>
       <c r="D8"/>
@@ -5102,17 +5835,17 @@
       <c r="S8"/>
     </row>
     <row r="9" spans="2:19" ht="29" x14ac:dyDescent="0.35">
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>54</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -5126,13 +5859,13 @@
       <c r="S9"/>
     </row>
     <row r="10" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="88"/>
-      <c r="C10" s="87"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="72"/>
       <c r="D10"/>
       <c r="E10"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -5146,14 +5879,14 @@
       <c r="S10"/>
     </row>
     <row r="11" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="88" t="s">
-        <v>71</v>
+      <c r="B11" s="73" t="s">
+        <v>70</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -5161,7 +5894,9 @@
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
+      <c r="M11" s="58" t="s">
+        <v>41</v>
+      </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
@@ -5170,28 +5905,30 @@
       <c r="S11"/>
     </row>
     <row r="12" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="D12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="E12"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="62" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>36</v>
       </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-      <c r="M12"/>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -5200,20 +5937,20 @@
       <c r="S12"/>
     </row>
     <row r="13" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>56</v>
+      <c r="B13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="64" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="8">
         <v>183.52</v>
       </c>
       <c r="E13"/>
-      <c r="F13" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="66">
+      <c r="F13" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="65">
         <v>9.7200000000000006</v>
       </c>
       <c r="H13"/>
@@ -5221,7 +5958,9 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13"/>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -5230,20 +5969,20 @@
       <c r="S13"/>
     </row>
     <row r="14" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="8">
         <v>239.27</v>
       </c>
       <c r="E14"/>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="65">
         <v>18.89</v>
       </c>
       <c r="H14"/>
@@ -5251,7 +5990,9 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-      <c r="M14"/>
+      <c r="M14" t="s">
+        <v>42</v>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
@@ -5260,20 +6001,20 @@
       <c r="S14"/>
     </row>
     <row r="15" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="8">
         <v>97.46</v>
       </c>
       <c r="E15"/>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="65">
+      <c r="G15" s="64">
         <v>22.33</v>
       </c>
       <c r="H15"/>
@@ -5281,7 +6022,9 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15"/>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
@@ -5290,17 +6033,17 @@
       <c r="S15"/>
     </row>
     <row r="16" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>57</v>
+      <c r="B16" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="8">
         <v>233.39</v>
       </c>
       <c r="E16"/>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="62" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="4">
@@ -5320,18 +6063,18 @@
       <c r="S16"/>
     </row>
     <row r="17" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="8">
         <v>119.98</v>
       </c>
       <c r="E17"/>
-      <c r="F17" s="63" t="s">
-        <v>38</v>
+      <c r="F17" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="G17" s="4">
         <v>5.98</v>
@@ -5350,18 +6093,18 @@
       <c r="S17"/>
     </row>
     <row r="18" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>58</v>
+      <c r="B18" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="8">
         <v>159.69</v>
       </c>
       <c r="E18"/>
-      <c r="F18" s="63" t="s">
-        <v>39</v>
+      <c r="F18" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="G18" s="4">
         <v>8.7200000000000006</v>
@@ -5380,18 +6123,18 @@
       <c r="S18"/>
     </row>
     <row r="19" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B19" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>59</v>
+      <c r="B19" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="8">
         <v>60.08</v>
       </c>
       <c r="E19"/>
-      <c r="F19" s="63" t="s">
-        <v>40</v>
+      <c r="F19" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="4">
         <v>6.67</v>
@@ -5431,139 +6174,139 @@
     </row>
     <row r="21" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="66" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="81" t="s">
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="83"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
       <c r="S21" s="13"/>
     </row>
     <row r="22" spans="2:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="61" t="s">
+      <c r="D22" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="61" t="s">
+      <c r="I22" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="61" t="s">
+      <c r="K22" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="L22" s="61" t="s">
+      <c r="L22" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="O22" s="61" t="s">
+      <c r="P22" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q22" s="61" t="s">
+      <c r="R22" s="60" t="s">
         <v>62</v>
-      </c>
-      <c r="R22" s="61" t="s">
-        <v>63</v>
       </c>
       <c r="S22" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="60" t="s">
+      <c r="B23" s="89"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="60" t="s">
+      <c r="G23" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="60" t="s">
-        <v>34</v>
-      </c>
       <c r="L23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>26</v>
-      </c>
       <c r="N23" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="Q23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="66">
+      <c r="B24" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="65">
         <v>9.7200000000000006</v>
       </c>
       <c r="D24" s="4">
@@ -5586,10 +6329,10 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="66">
+      <c r="C25" s="65">
         <v>18.89</v>
       </c>
       <c r="D25" s="4">
@@ -5612,10 +6355,10 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="65">
+      <c r="C26" s="64">
         <v>22.33</v>
       </c>
       <c r="D26" s="4">
@@ -5638,7 +6381,7 @@
       <c r="S26" s="8"/>
     </row>
     <row r="27" spans="2:19" ht="21.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="62" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4">
@@ -5664,8 +6407,8 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="63" t="s">
-        <v>38</v>
+      <c r="B28" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="C28" s="4">
         <v>5.98</v>
@@ -5690,8 +6433,8 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="63" t="s">
-        <v>39</v>
+      <c r="B29" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="C29" s="4">
         <v>8.7200000000000006</v>
@@ -5716,8 +6459,8 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="2:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="63" t="s">
-        <v>40</v>
+      <c r="B30" s="62" t="s">
+        <v>39</v>
       </c>
       <c r="C30" s="4">
         <v>6.67</v>
